--- a/downloaded_files/CMPS202_Tutorial-35690.xlsx
+++ b/downloaded_files/CMPS202_Tutorial-35690.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -127,15 +127,6 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman wael abdelrazek el seid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240091</x:t>
-  </x:si>
-  <x:si>
-    <x:t>على احمد محمد محمود محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali Ahmed Mohamed Mahmoud Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1230206</x:t>
@@ -395,7 +386,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -695,7 +686,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1136,7 +1127,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6651444097</x:v>
+        <x:v>45907.4148139699</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1168,7 +1159,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4148139699</x:v>
+        <x:v>45907.4191667014</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1200,7 +1191,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4191667014</x:v>
+        <x:v>45906.6652276273</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1232,7 +1223,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6652276273</x:v>
+        <x:v>45914.5873921644</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1264,7 +1255,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.5873921644</x:v>
+        <x:v>45906.4152015046</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1296,7 +1287,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4152015046</x:v>
+        <x:v>45906.6646825232</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1328,7 +1319,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6646825232</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1360,7 +1351,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45912.3044168982</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1392,7 +1383,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.3044168982</x:v>
+        <x:v>45906.6676064468</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1424,7 +1415,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6676064468</x:v>
+        <x:v>45906.665140625</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1456,7 +1447,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.665140625</x:v>
+        <x:v>45906.6648384606</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1488,7 +1479,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6648384606</x:v>
+        <x:v>45914.4662671644</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1520,7 +1511,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.4662671644</x:v>
+        <x:v>45906.6651516551</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1552,7 +1543,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6651516551</x:v>
+        <x:v>45912.6734913194</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1584,7 +1575,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45912.6734913194</x:v>
+        <x:v>45906.6669528935</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1616,7 +1607,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6669528935</x:v>
+        <x:v>45906.6718801736</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1633,38 +1624,6 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45906.6718801736</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS202_Tutorial-35690.xlsx
+++ b/downloaded_files/CMPS202_Tutorial-35690.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -109,15 +109,6 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman thamer mohamed elzahaby</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240083</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن احمد عبدالباسط احمد عبدالفتاح</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Ahmed Abdelbaset Ahmed Abdelfattah</x:t>
   </x:si>
   <x:si>
     <x:t>1210251</x:t>
@@ -386,7 +377,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -686,7 +677,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -694,7 +685,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="32.650625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="32.600625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="50.160625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -1063,7 +1054,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.3085414352</x:v>
+        <x:v>45906.6650795139</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1095,7 +1086,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6650795139</x:v>
+        <x:v>45907.4148139699</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1127,7 +1118,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4148139699</x:v>
+        <x:v>45907.4191667014</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1159,7 +1150,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4191667014</x:v>
+        <x:v>45906.6652276273</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1191,7 +1182,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6652276273</x:v>
+        <x:v>45914.5873921644</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1223,7 +1214,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.5873921644</x:v>
+        <x:v>45906.4152015046</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1255,7 +1246,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4152015046</x:v>
+        <x:v>45906.6646825232</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1287,7 +1278,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6646825232</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1319,7 +1310,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45912.3044168982</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1351,7 +1342,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.3044168982</x:v>
+        <x:v>45906.6676064468</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1383,7 +1374,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6676064468</x:v>
+        <x:v>45906.665140625</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1415,7 +1406,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.665140625</x:v>
+        <x:v>45906.6648384606</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1447,7 +1438,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6648384606</x:v>
+        <x:v>45914.4662671644</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1479,7 +1470,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.4662671644</x:v>
+        <x:v>45906.6651516551</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1511,7 +1502,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6651516551</x:v>
+        <x:v>45912.6734913194</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1543,7 +1534,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.6734913194</x:v>
+        <x:v>45906.6669528935</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1575,7 +1566,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6669528935</x:v>
+        <x:v>45906.6718801736</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1592,38 +1583,6 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:20">
-      <x:c r="A28" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B28" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="C28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="E28" s="3">
-        <x:v>45906.6718801736</x:v>
-      </x:c>
-      <x:c r="F28" s="2" t="s"/>
-      <x:c r="G28" s="2" t="s"/>
-      <x:c r="H28" s="2" t="s"/>
-      <x:c r="I28" s="2" t="s"/>
-      <x:c r="J28" s="2" t="s"/>
-      <x:c r="K28" s="2" t="s"/>
-      <x:c r="L28" s="2" t="s"/>
-      <x:c r="M28" s="2" t="s"/>
-      <x:c r="N28" s="2" t="s"/>
-      <x:c r="O28" s="2" t="s"/>
-      <x:c r="P28" s="2" t="s"/>
-      <x:c r="Q28" s="2" t="s"/>
-      <x:c r="R28" s="2" t="s"/>
-      <x:c r="S28" s="2" t="s"/>
-      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS202_Tutorial-35690.xlsx
+++ b/downloaded_files/CMPS202_Tutorial-35690.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -145,15 +145,6 @@
   </x:si>
   <x:si>
     <x:t>Omar Mohamed Abdel Samad Zaky</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240114</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد مصطفى محمد الفحام</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Mohamed Mostafa Mohamed El Faham</x:t>
   </x:si>
   <x:si>
     <x:t>1190475</x:t>
@@ -377,7 +368,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -677,7 +668,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1182,7 +1173,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.5873921644</x:v>
+        <x:v>45906.4152015046</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1214,7 +1205,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4152015046</x:v>
+        <x:v>45906.6646825232</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1246,7 +1237,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6646825232</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1278,7 +1269,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45912.3044168982</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1310,7 +1301,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.3044168982</x:v>
+        <x:v>45906.6676064468</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1342,7 +1333,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6676064468</x:v>
+        <x:v>45906.665140625</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1374,7 +1365,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.665140625</x:v>
+        <x:v>45906.6648384606</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1406,7 +1397,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6648384606</x:v>
+        <x:v>45914.4662671644</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1438,7 +1429,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.4662671644</x:v>
+        <x:v>45906.6651516551</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1470,7 +1461,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6651516551</x:v>
+        <x:v>45912.6734913194</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1502,7 +1493,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45912.6734913194</x:v>
+        <x:v>45906.6669528935</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1534,7 +1525,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6669528935</x:v>
+        <x:v>45906.6718801736</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1551,38 +1542,6 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:20">
-      <x:c r="A27" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="C27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="E27" s="3">
-        <x:v>45906.6718801736</x:v>
-      </x:c>
-      <x:c r="F27" s="2" t="s"/>
-      <x:c r="G27" s="2" t="s"/>
-      <x:c r="H27" s="2" t="s"/>
-      <x:c r="I27" s="2" t="s"/>
-      <x:c r="J27" s="2" t="s"/>
-      <x:c r="K27" s="2" t="s"/>
-      <x:c r="L27" s="2" t="s"/>
-      <x:c r="M27" s="2" t="s"/>
-      <x:c r="N27" s="2" t="s"/>
-      <x:c r="O27" s="2" t="s"/>
-      <x:c r="P27" s="2" t="s"/>
-      <x:c r="Q27" s="2" t="s"/>
-      <x:c r="R27" s="2" t="s"/>
-      <x:c r="S27" s="2" t="s"/>
-      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS202_Tutorial-35690.xlsx
+++ b/downloaded_files/CMPS202_Tutorial-35690.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,6 +31,15 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد طارق احمد اسماعيل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Tarek Ahmed Ismail</x:t>
   </x:si>
   <x:si>
     <x:t>1230020</x:t>
@@ -368,7 +377,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -668,7 +677,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -759,7 +768,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45912.3049418634</x:v>
+        <x:v>45926.5422278935</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -791,7 +800,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4315920139</x:v>
+        <x:v>45912.3049418634</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -823,7 +832,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45912.305043669</x:v>
+        <x:v>45907.4315920139</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -855,7 +864,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6652719907</x:v>
+        <x:v>45912.305043669</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -887,7 +896,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4152515856</x:v>
+        <x:v>45906.6652719907</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -919,7 +928,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.664677662</x:v>
+        <x:v>45907.4152515856</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -947,9 +956,11 @@
       <x:c r="C8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s"/>
+      <x:c r="D8" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6709182523</x:v>
+        <x:v>45907.664677662</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -972,16 +983,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D9" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
+      <x:c r="D9" s="2" t="s"/>
       <x:c r="E9" s="3">
-        <x:v>45907.4169541319</x:v>
+        <x:v>45906.6709182523</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1013,7 +1022,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.3086418981</x:v>
+        <x:v>45907.4169541319</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1045,7 +1054,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6650795139</x:v>
+        <x:v>45912.3086418981</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1077,7 +1086,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4148139699</x:v>
+        <x:v>45906.6650795139</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1109,7 +1118,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4191667014</x:v>
+        <x:v>45907.4148139699</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1141,7 +1150,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6652276273</x:v>
+        <x:v>45907.4191667014</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1173,7 +1182,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4152015046</x:v>
+        <x:v>45906.6652276273</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1205,7 +1214,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6646825232</x:v>
+        <x:v>45906.4152015046</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1237,7 +1246,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45906.6646825232</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1269,7 +1278,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.3044168982</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1301,7 +1310,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6676064468</x:v>
+        <x:v>45912.3044168982</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1333,7 +1342,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.665140625</x:v>
+        <x:v>45906.6676064468</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1365,7 +1374,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6648384606</x:v>
+        <x:v>45906.665140625</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1397,7 +1406,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.4662671644</x:v>
+        <x:v>45906.6648384606</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1429,7 +1438,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6651516551</x:v>
+        <x:v>45914.4662671644</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1461,7 +1470,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.6734913194</x:v>
+        <x:v>45906.6651516551</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1493,7 +1502,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6669528935</x:v>
+        <x:v>45912.6734913194</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1525,7 +1534,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6718801736</x:v>
+        <x:v>45906.6669528935</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1542,6 +1551,38 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45906.6718801736</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS202_Tutorial-35690.xlsx
+++ b/downloaded_files/CMPS202_Tutorial-35690.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,15 +51,6 @@
     <x:t>Irinie Amgad Nessim Guerguis</x:t>
   </x:si>
   <x:si>
-    <x:t>1220041</x:t>
-  </x:si>
-  <x:si>
-    <x:t>بلال عاطف محمد احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Belal Atef Mohammed Ahmed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230027</x:t>
   </x:si>
   <x:si>
@@ -69,15 +60,6 @@
     <x:t>Julia Ehab thabet</x:t>
   </x:si>
   <x:si>
-    <x:t>1210214</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حازم محمد عبد السلام لطفي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hazem mohamed abdelsalam lotfy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220120</x:t>
   </x:si>
   <x:si>
@@ -102,6 +84,15 @@
     <x:t>حسين ياسر محمد ابراهيم صقر</x:t>
   </x:si>
   <x:si>
+    <x:t>1210223</x:t>
+  </x:si>
+  <x:si>
+    <x:t>روان محمد سموءل رزق سالم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rawan Mohamed Samawal Rezk</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230194</x:t>
   </x:si>
   <x:si>
@@ -156,15 +147,6 @@
     <x:t>Omar Mohamed Abdel Samad Zaky</x:t>
   </x:si>
   <x:si>
-    <x:t>1190475</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمرو ماهر نوفل عبد الرحمن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Amr Maher Nofal Abd Elrahman</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210021</x:t>
   </x:si>
   <x:si>
@@ -210,6 +192,15 @@
     <x:t xml:space="preserve">  Mohamed Nehad Sayed Ahmed El kanawaty</x:t>
   </x:si>
   <x:si>
+    <x:t>1240186</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم هانى مصطفى جوده عبدالرازق</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maryam Hany Mostafa</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210307</x:t>
   </x:si>
   <x:si>
@@ -226,15 +217,6 @@
   </x:si>
   <x:si>
     <x:t>Moustafa Mohamed Hassan Mohamed Helmy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210417</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مصعب محمد عبد اللاه على عبد اللاه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mosaab Mohammed Abdella Ali</x:t>
   </x:si>
   <x:si>
     <x:t>4230182</x:t>
@@ -377,7 +359,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -677,7 +659,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -832,7 +814,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4315920139</x:v>
+        <x:v>45912.305043669</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -864,7 +846,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45912.305043669</x:v>
+        <x:v>45907.4152515856</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -896,7 +878,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6652719907</x:v>
+        <x:v>45927.4241120023</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -924,11 +906,9 @@
       <x:c r="C7" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
+      <x:c r="D7" s="2" t="s"/>
       <x:c r="E7" s="3">
-        <x:v>45907.4152515856</x:v>
+        <x:v>45906.6709182523</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -951,16 +931,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C8" s="2" t="s">
+      <x:c r="D8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.664677662</x:v>
+        <x:v>45927.4144425579</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -983,14 +963,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C9" s="2" t="s">
+      <x:c r="D9" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D9" s="2" t="s"/>
       <x:c r="E9" s="3">
-        <x:v>45906.6709182523</x:v>
+        <x:v>45907.4169541319</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1022,7 +1004,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4169541319</x:v>
+        <x:v>45912.3086418981</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1054,7 +1036,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.3086418981</x:v>
+        <x:v>45927.4167121528</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1086,7 +1068,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6650795139</x:v>
+        <x:v>45907.4148139699</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1118,7 +1100,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4148139699</x:v>
+        <x:v>45927.4327822917</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1150,7 +1132,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4191667014</x:v>
+        <x:v>45927.4166126968</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1182,7 +1164,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6652276273</x:v>
+        <x:v>45906.6646825232</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1214,7 +1196,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4152015046</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1246,7 +1228,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6646825232</x:v>
+        <x:v>45912.3044168982</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1278,7 +1260,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45906.6676064468</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1310,7 +1292,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.3044168982</x:v>
+        <x:v>45906.665140625</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1342,7 +1324,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6676064468</x:v>
+        <x:v>45927.4619000347</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1374,7 +1356,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.665140625</x:v>
+        <x:v>45906.6648384606</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1406,7 +1388,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6648384606</x:v>
+        <x:v>45914.4662671644</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1438,7 +1420,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.4662671644</x:v>
+        <x:v>45912.6734913194</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1470,7 +1452,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6651516551</x:v>
+        <x:v>45906.6669528935</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1502,7 +1484,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45912.6734913194</x:v>
+        <x:v>45906.6718801736</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1519,70 +1501,6 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:20">
-      <x:c r="A26" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B26" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="C26" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E26" s="3">
-        <x:v>45906.6669528935</x:v>
-      </x:c>
-      <x:c r="F26" s="2" t="s"/>
-      <x:c r="G26" s="2" t="s"/>
-      <x:c r="H26" s="2" t="s"/>
-      <x:c r="I26" s="2" t="s"/>
-      <x:c r="J26" s="2" t="s"/>
-      <x:c r="K26" s="2" t="s"/>
-      <x:c r="L26" s="2" t="s"/>
-      <x:c r="M26" s="2" t="s"/>
-      <x:c r="N26" s="2" t="s"/>
-      <x:c r="O26" s="2" t="s"/>
-      <x:c r="P26" s="2" t="s"/>
-      <x:c r="Q26" s="2" t="s"/>
-      <x:c r="R26" s="2" t="s"/>
-      <x:c r="S26" s="2" t="s"/>
-      <x:c r="T26" s="2" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:20">
-      <x:c r="A27" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="C27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="E27" s="3">
-        <x:v>45906.6718801736</x:v>
-      </x:c>
-      <x:c r="F27" s="2" t="s"/>
-      <x:c r="G27" s="2" t="s"/>
-      <x:c r="H27" s="2" t="s"/>
-      <x:c r="I27" s="2" t="s"/>
-      <x:c r="J27" s="2" t="s"/>
-      <x:c r="K27" s="2" t="s"/>
-      <x:c r="L27" s="2" t="s"/>
-      <x:c r="M27" s="2" t="s"/>
-      <x:c r="N27" s="2" t="s"/>
-      <x:c r="O27" s="2" t="s"/>
-      <x:c r="P27" s="2" t="s"/>
-      <x:c r="Q27" s="2" t="s"/>
-      <x:c r="R27" s="2" t="s"/>
-      <x:c r="S27" s="2" t="s"/>
-      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS202_Tutorial-35690.xlsx
+++ b/downloaded_files/CMPS202_Tutorial-35690.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -127,15 +127,6 @@
   </x:si>
   <x:si>
     <x:t>Ali Tarek Mohamed Hussein Al Hakim Mohamed Hussein</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230075</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر عصام على شادي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Essam Ali shady</x:t>
   </x:si>
   <x:si>
     <x:t>1210067</x:t>
@@ -359,7 +350,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -659,7 +650,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1004,7 +995,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.3086418981</x:v>
+        <x:v>45927.8436123843</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1100,7 +1091,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.4327822917</x:v>
+        <x:v>45927.4166126968</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1132,7 +1123,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.4166126968</x:v>
+        <x:v>45906.6646825232</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1164,7 +1155,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6646825232</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1196,7 +1187,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45912.3044168982</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1228,7 +1219,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.3044168982</x:v>
+        <x:v>45906.6676064468</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1260,7 +1251,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6676064468</x:v>
+        <x:v>45906.665140625</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1292,7 +1283,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.665140625</x:v>
+        <x:v>45927.4619000347</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1324,7 +1315,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.4619000347</x:v>
+        <x:v>45906.6648384606</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1356,7 +1347,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6648384606</x:v>
+        <x:v>45914.4662671644</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1388,7 +1379,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.4662671644</x:v>
+        <x:v>45912.6734913194</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1420,7 +1411,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.6734913194</x:v>
+        <x:v>45906.6669528935</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1452,7 +1443,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6669528935</x:v>
+        <x:v>45906.6718801736</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1469,38 +1460,6 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:20">
-      <x:c r="A25" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B25" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="C25" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="E25" s="3">
-        <x:v>45906.6718801736</x:v>
-      </x:c>
-      <x:c r="F25" s="2" t="s"/>
-      <x:c r="G25" s="2" t="s"/>
-      <x:c r="H25" s="2" t="s"/>
-      <x:c r="I25" s="2" t="s"/>
-      <x:c r="J25" s="2" t="s"/>
-      <x:c r="K25" s="2" t="s"/>
-      <x:c r="L25" s="2" t="s"/>
-      <x:c r="M25" s="2" t="s"/>
-      <x:c r="N25" s="2" t="s"/>
-      <x:c r="O25" s="2" t="s"/>
-      <x:c r="P25" s="2" t="s"/>
-      <x:c r="Q25" s="2" t="s"/>
-      <x:c r="R25" s="2" t="s"/>
-      <x:c r="S25" s="2" t="s"/>
-      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS202_Tutorial-35690.xlsx
+++ b/downloaded_files/CMPS202_Tutorial-35690.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,15 +67,6 @@
   </x:si>
   <x:si>
     <x:t>Hossam Abdelmoniem Bakr Mohammed Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240301</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حسين حسام حسين عمران عمران</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HUSSEIN HOSSAM HUSSEIN OMRAN OMRAN</x:t>
   </x:si>
   <x:si>
     <x:t>4220116</x:t>
@@ -350,7 +341,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -650,7 +641,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -865,11 +856,9 @@
       <x:c r="C6" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D6" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
+      <x:c r="D6" s="2" t="s"/>
       <x:c r="E6" s="3">
-        <x:v>45927.4241120023</x:v>
+        <x:v>45906.6709182523</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -892,14 +881,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C7" s="2" t="s">
+      <x:c r="D7" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s"/>
       <x:c r="E7" s="3">
-        <x:v>45906.6709182523</x:v>
+        <x:v>45927.4144425579</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -931,7 +922,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45927.4144425579</x:v>
+        <x:v>45907.4169541319</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -963,7 +954,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4169541319</x:v>
+        <x:v>45927.8436123843</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -995,7 +986,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.8436123843</x:v>
+        <x:v>45927.4167121528</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1027,7 +1018,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.4167121528</x:v>
+        <x:v>45907.4148139699</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1059,7 +1050,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4148139699</x:v>
+        <x:v>45927.4166126968</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1091,7 +1082,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.4166126968</x:v>
+        <x:v>45906.6646825232</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1123,7 +1114,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6646825232</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1155,7 +1146,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45912.3044168982</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1187,7 +1178,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.3044168982</x:v>
+        <x:v>45906.6676064468</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1219,7 +1210,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6676064468</x:v>
+        <x:v>45906.665140625</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1251,7 +1242,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.665140625</x:v>
+        <x:v>45927.4619000347</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1283,7 +1274,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.4619000347</x:v>
+        <x:v>45906.6648384606</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1315,7 +1306,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6648384606</x:v>
+        <x:v>45914.4662671644</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1347,7 +1338,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.4662671644</x:v>
+        <x:v>45912.6734913194</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1379,7 +1370,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.6734913194</x:v>
+        <x:v>45906.6669528935</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1411,7 +1402,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6669528935</x:v>
+        <x:v>45906.6718801736</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1428,38 +1419,6 @@
       <x:c r="R23" s="2" t="s"/>
       <x:c r="S23" s="2" t="s"/>
       <x:c r="T23" s="2" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:20">
-      <x:c r="A24" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B24" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="C24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="E24" s="3">
-        <x:v>45906.6718801736</x:v>
-      </x:c>
-      <x:c r="F24" s="2" t="s"/>
-      <x:c r="G24" s="2" t="s"/>
-      <x:c r="H24" s="2" t="s"/>
-      <x:c r="I24" s="2" t="s"/>
-      <x:c r="J24" s="2" t="s"/>
-      <x:c r="K24" s="2" t="s"/>
-      <x:c r="L24" s="2" t="s"/>
-      <x:c r="M24" s="2" t="s"/>
-      <x:c r="N24" s="2" t="s"/>
-      <x:c r="O24" s="2" t="s"/>
-      <x:c r="P24" s="2" t="s"/>
-      <x:c r="Q24" s="2" t="s"/>
-      <x:c r="R24" s="2" t="s"/>
-      <x:c r="S24" s="2" t="s"/>
-      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS202_Tutorial-35690.xlsx
+++ b/downloaded_files/CMPS202_Tutorial-35690.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -84,6 +84,15 @@
     <x:t>Rawan Mohamed Samawal Rezk</x:t>
   </x:si>
   <x:si>
+    <x:t>1210232</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زينة جميل إسماعيل إسماعيل العباسي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zeena Jameel Ismail Ismail Alabasy</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230194</x:t>
   </x:si>
   <x:si>
@@ -102,15 +111,6 @@
     <x:t>Abdelrahman thamer mohamed elzahaby</x:t>
   </x:si>
   <x:si>
-    <x:t>1210251</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن وائل عبدالرازق السيد موافى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman wael abdelrazek el seid</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230206</x:t>
   </x:si>
   <x:si>
@@ -120,22 +120,13 @@
     <x:t>Ali Tarek Mohamed Hussein Al Hakim Mohamed Hussein</x:t>
   </x:si>
   <x:si>
-    <x:t>1210067</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد عبد الصمد ذكى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Mohamed Abdel Samad Zaky</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210021</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمرو محمد صديق جاد الرب محمود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Amr Mohamed Seddeek Gad Elrab Mahmoud</x:t>
+    <x:t>1210409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>فاطمه عبدالعزيز محمد عبده</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fatma Abdelaziz Mohamed Abdo</x:t>
   </x:si>
   <x:si>
     <x:t>1240122</x:t>
@@ -154,15 +145,6 @@
   </x:si>
   <x:si>
     <x:t>karim wael ismaiel yousef Ibrahim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210290</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد عمرو هاني حسين سيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed amr hany hussein sayed</x:t>
   </x:si>
   <x:si>
     <x:t>1210292</x:t>
@@ -341,7 +323,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -641,7 +623,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T23"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -922,7 +904,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4169541319</x:v>
+        <x:v>45929.3412998495</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -954,7 +936,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45927.8436123843</x:v>
+        <x:v>45907.4169541319</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -986,7 +968,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.4167121528</x:v>
+        <x:v>45927.8436123843</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1050,7 +1032,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.4166126968</x:v>
+        <x:v>45929.3453385069</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1082,7 +1064,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6646825232</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1114,7 +1096,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45912.3044168982</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1146,7 +1128,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.3044168982</x:v>
+        <x:v>45906.665140625</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1178,7 +1160,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6676064468</x:v>
+        <x:v>45927.4619000347</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1210,7 +1192,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.665140625</x:v>
+        <x:v>45906.6648384606</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1242,7 +1224,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.4619000347</x:v>
+        <x:v>45914.4662671644</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1274,7 +1256,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6648384606</x:v>
+        <x:v>45912.6734913194</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1306,7 +1288,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.4662671644</x:v>
+        <x:v>45906.6669528935</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1338,7 +1320,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.6734913194</x:v>
+        <x:v>45906.6718801736</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1355,70 +1337,6 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:20">
-      <x:c r="A22" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B22" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="E22" s="3">
-        <x:v>45906.6669528935</x:v>
-      </x:c>
-      <x:c r="F22" s="2" t="s"/>
-      <x:c r="G22" s="2" t="s"/>
-      <x:c r="H22" s="2" t="s"/>
-      <x:c r="I22" s="2" t="s"/>
-      <x:c r="J22" s="2" t="s"/>
-      <x:c r="K22" s="2" t="s"/>
-      <x:c r="L22" s="2" t="s"/>
-      <x:c r="M22" s="2" t="s"/>
-      <x:c r="N22" s="2" t="s"/>
-      <x:c r="O22" s="2" t="s"/>
-      <x:c r="P22" s="2" t="s"/>
-      <x:c r="Q22" s="2" t="s"/>
-      <x:c r="R22" s="2" t="s"/>
-      <x:c r="S22" s="2" t="s"/>
-      <x:c r="T22" s="2" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:20">
-      <x:c r="A23" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B23" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="C23" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="E23" s="3">
-        <x:v>45906.6718801736</x:v>
-      </x:c>
-      <x:c r="F23" s="2" t="s"/>
-      <x:c r="G23" s="2" t="s"/>
-      <x:c r="H23" s="2" t="s"/>
-      <x:c r="I23" s="2" t="s"/>
-      <x:c r="J23" s="2" t="s"/>
-      <x:c r="K23" s="2" t="s"/>
-      <x:c r="L23" s="2" t="s"/>
-      <x:c r="M23" s="2" t="s"/>
-      <x:c r="N23" s="2" t="s"/>
-      <x:c r="O23" s="2" t="s"/>
-      <x:c r="P23" s="2" t="s"/>
-      <x:c r="Q23" s="2" t="s"/>
-      <x:c r="R23" s="2" t="s"/>
-      <x:c r="S23" s="2" t="s"/>
-      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS202_Tutorial-35690.xlsx
+++ b/downloaded_files/CMPS202_Tutorial-35690.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,15 +31,6 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230009</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد طارق احمد اسماعيل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Tarek Ahmed Ismail</x:t>
   </x:si>
   <x:si>
     <x:t>1230020</x:t>
@@ -323,7 +314,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -623,7 +614,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -714,7 +705,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45926.5422278935</x:v>
+        <x:v>45912.3049418634</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -746,7 +737,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45912.3049418634</x:v>
+        <x:v>45912.305043669</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -778,7 +769,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45912.305043669</x:v>
+        <x:v>45907.4152515856</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -806,11 +797,9 @@
       <x:c r="C5" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
+      <x:c r="D5" s="2" t="s"/>
       <x:c r="E5" s="3">
-        <x:v>45907.4152515856</x:v>
+        <x:v>45906.6709182523</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -833,14 +822,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C6" s="2" t="s">
+      <x:c r="D6" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D6" s="2" t="s"/>
       <x:c r="E6" s="3">
-        <x:v>45906.6709182523</x:v>
+        <x:v>45927.4144425579</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -872,7 +863,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45927.4144425579</x:v>
+        <x:v>45929.3412998495</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -904,7 +895,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45929.3412998495</x:v>
+        <x:v>45907.4169541319</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -936,7 +927,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4169541319</x:v>
+        <x:v>45927.8436123843</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -968,7 +959,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.8436123843</x:v>
+        <x:v>45907.4148139699</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1000,7 +991,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4148139699</x:v>
+        <x:v>45929.3453385069</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1032,7 +1023,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45929.3453385069</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1064,7 +1055,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45912.3044168982</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1096,7 +1087,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.3044168982</x:v>
+        <x:v>45906.665140625</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1128,7 +1119,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.665140625</x:v>
+        <x:v>45927.4619000347</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1160,7 +1151,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.4619000347</x:v>
+        <x:v>45906.6648384606</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1192,7 +1183,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6648384606</x:v>
+        <x:v>45914.4662671644</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1224,7 +1215,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.4662671644</x:v>
+        <x:v>45912.6734913194</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1256,7 +1247,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.6734913194</x:v>
+        <x:v>45906.6669528935</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1288,7 +1279,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6669528935</x:v>
+        <x:v>45906.6718801736</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1305,38 +1296,6 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:20">
-      <x:c r="A21" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B21" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C21" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="E21" s="3">
-        <x:v>45906.6718801736</x:v>
-      </x:c>
-      <x:c r="F21" s="2" t="s"/>
-      <x:c r="G21" s="2" t="s"/>
-      <x:c r="H21" s="2" t="s"/>
-      <x:c r="I21" s="2" t="s"/>
-      <x:c r="J21" s="2" t="s"/>
-      <x:c r="K21" s="2" t="s"/>
-      <x:c r="L21" s="2" t="s"/>
-      <x:c r="M21" s="2" t="s"/>
-      <x:c r="N21" s="2" t="s"/>
-      <x:c r="O21" s="2" t="s"/>
-      <x:c r="P21" s="2" t="s"/>
-      <x:c r="Q21" s="2" t="s"/>
-      <x:c r="R21" s="2" t="s"/>
-      <x:c r="S21" s="2" t="s"/>
-      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
